--- a/Data/sample_tickets.xlsx
+++ b/Data/sample_tickets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbhetuwal/Desktop/All Files/Third Year/Interdisciplinary Team Project/Assessment/Interdisciplinary Team Project/thegreyhill-audience-map/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{090B7459-0856-064C-B163-64687A65C856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8218749-B303-F54F-A084-33A923C423D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="900" windowWidth="28040" windowHeight="17040" xr2:uid="{919EFC6F-1C4E-3542-8220-38BFEB085694}"/>
   </bookViews>
@@ -35,10 +35,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>show_name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>Macbeth</t>
+  </si>
+  <si>
+    <t>Aberdeen Arts Centre</t>
+  </si>
+  <si>
+    <t>AB11 6BR</t>
+  </si>
+  <si>
+    <t>Hamlet</t>
+  </si>
+  <si>
+    <t>His Majesty's Theatre</t>
+  </si>
+  <si>
+    <t>AB24 5HY</t>
+  </si>
+  <si>
+    <t>Dundee Rep Theatre</t>
+  </si>
+  <si>
+    <t>DD1 1PB</t>
+  </si>
+  <si>
+    <t>Glasgow Citizens Theatre</t>
+  </si>
+  <si>
+    <t>G5 9DS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -66,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,14 +455,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D476B8D-4250-A445-A8D8-F9B3B8F512FE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>